--- a/Data/Philstar/New/Extracted_Links.xlsx
+++ b/Data/Philstar/New/Extracted_Links.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:D290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,312 +440,5802 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Section</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>URL</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>SC petition filed to challenge Philhealth transfer</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45512.3901657293</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/02/2374953/sc-petition-filed-challenge-philhealth-transfer</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Supreme Court affirms sacking of Ombudsman official for fixing cases</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/08/2376354/supreme-court-affirms-sacking-ombudsman-official-fixing-cases</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>House probe surfaces links between POGOs and illegal drug trade</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45512.39016642705</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/02/2374941/house-probe-surfaces-links-between-pogos-and-illegal-drug-trade</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>LIVE updates: Kanlaon Volcano restiveness</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/08/2376359/live-updates-kanlaon-volcano-restiveness</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DFA chief to visit Mongolia, South Korea this August</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45512.39016731032</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/02/2374954/dfa-chief-visit-mongolia-south-korea-august</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Philippines holds joint drills with US, Australia, Canada</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/08/2376337/philippines-holds-joint-drills-us-australia-canada</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>LIVE updates: Kanlaon Volcano restiveness</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45512.39016806021</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/02/2374945/live-updates-kanlaon-volcano-restiveness</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sara: We deserve better</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/08/2376329/sara-we-deserve-better</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Philippines seeks release of sick Filipino hostages from Yemen's Houthis</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45512.39016875339</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/02/2374909/philippines-seeks-release-sick-filipino-hostages-yemens-houthis</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Leave PhilHealth rate cut to Congress – Recto</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/08/2376325/leave-philhealth-rate-cut-congress-recto</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Philippine, US navies hold joint drills in West Philippine Sea</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45512.39016966341</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/02/2374706/philippine-us-navies-hold-joint-drills-west-philippine-sea</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/08/2376296/marcos-jr-vows-produce-more-olympic-medalists</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>‘DTI chief must focus on FTAs, MSMEs’</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45512.39017025284</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/02/2374858/dti-chief-must-focus-ftas-msmes</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376093/olympic-rankings-3-medals-philippines-still-leads-southeast-asia-paris</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Roque, wife face PAOCC probe following arrest of fugitive</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>45512.39017097578</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/02/2374857/roque-wife-face-paocc-probe-following-arrest-fugitive</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/06/2375884/carlos-yulos-coach-get-p10-million-pagcor-yulo-gets-p20-million</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>DOTr to go on with PUVMP amid Senate resolution</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>45512.39017159497</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/02/2374855/dotr-go-puvmp-amid-senate-resolution</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/08/2376311/2-cayman-island-banks-deny-offshore-accounts-comelec-chief</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>DPWH: Philippines has no integrated flood master plan</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>45512.39017220739</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/02/2374854/dpwh-philippines-has-no-integrated-flood-master-plan</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/06/2375813/carlos-yulos-mother-eyes-legal-action-vs-accusers-lawyer</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Marcos Jr. urges Filipinos: Love the national language</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>45512.39017273971</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/02/2374823/marcos-jr-urges-filipinos-love-national-language</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Marcos: PUVMP to push through</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/08/2376326/marcos-puvmp-push-through</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DOJ confident Timor-Leste court will uphold Teves' extradition despite new plea</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>45512.39017327355</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/01/2374690/doj-confident-timor-leste-court-will-uphold-teves-extradition-despite-new-plea</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>PNP: Escorts of 17 other government officials recalled</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/08/2376320/pnp-escorts-17-other-government-officials-recalled</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alice Guo and Guo Hua Ping's fingerprints match, says Comelec </t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>45512.39017380611</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/01/2374687/alice-guo-and-guo-hua-pings-fingerprints-match-says-comelec</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>PCG: Bad weather caused sinking of 3 vessels</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/08/2376317/pcg-bad-weather-caused-sinking-3-vessels</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>MV Mirola Uno oil removal underway; MTKR Jason Bradley is next</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>45512.39017433675</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/01/2374686/mv-mirola-uno-oil-removal-underway-mtkr-jason-bradley-next</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Jobless rate down 3.1% in June</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/08/2376313/jobless-rate-down-31-june</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>For 'Buwan ng Wika,' Marcos urges Filipinos to love national language</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>45512.39017488676</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/01/2374678/buwan-ng-wika-marcos-urges-filipinos-love-national-language</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2375952/ginto-pakay-ni-ceniza</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Pascual quits as DTI chief</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>45512.39017543077</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/01/2374616/pascual-quits-dti-chief</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2375946/im-really-sorry-obiena</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Drug smuggling raps filed vs Polong Duterte, Sara’s husband</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>45512.39017596893</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/01/2374612/drug-smuggling-raps-filed-vs-polong-duterte-saras-husband</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2375945/durham-gusto-rin-ng-pba-title</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>House orders arrest of Michael Yang</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>45512.39017649956</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/01/2374611/house-orders-arrest-michael-yang</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2375944/hd-spikers-tiklop-sa-chargers</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Oil spill: 8 Cavite towns declare calamity</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>45512.3901770633</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/01/2374609/oil-spill-8-cavite-towns-declare-calamity</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/08/2376303/speaker-trillanes-tried-get-police-testimony-icc</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>22 senators want PUVMP suspended</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>45512.39017759397</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/08/01/2374605/22-senators-want-puvmp-suspended</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/08/2376307/duterte-go-face-plunder-raps-over-navy-frigate-deal</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>US Coast Guard to assist in post oil spill ops</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>45512.39017814223</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/07/31/2374426/us-coast-guard-assist-post-oil-spill-ops</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/08/2376309/ca-panel-oks-angaras-deped-appointment</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>LIST: Local testing centers for the 2024 Bar Examinations</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>45512.39017884422</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/07/31/2374419/list-local-testing-centers-2024-bar-examinations</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Marcos thumbs down halt of jeepney modernization implementation</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376130/marcos-thumbs-down-halt-jeepney-modernization-implementation</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Comelec records 4.8 million voters for 2025 elections</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>45512.39017986703</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/07/31/2374424/comelec-records-48-million-voters-2025-elections</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Philippines holds joint patrols with US, Canada, Australia</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376129/philippines-holds-joint-patrols-us-canada-australia</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Cordillera jail congestion eases in June — BJMP</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>45512.39018057663</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/07/31/2374418/cordillera-jail-congestion-eases-june-bjmp</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ICC arrest warrant for Dela Rosa? Senate mulls scenarios</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376117/icc-arrest-warrant-dela-rosa-senate-mulls-scenarios</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Alfredo Pascual resigns as DTI chief</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>45512.3901811188</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>https://www.philstar.com/headlines/2024/07/31/2374412/alfredo-pascual-resigns-dti-chief</t>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Trillanes files plunder case vs Duterte, Go over P16-B frigate deal</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376119/trillanes-files-plunder-case-vs-duterte-go-over-p16-b-frigate-deal</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45512.39018164948</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Philippines to train Mongolia’s rural teachers on English proficiency</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376115/philippines-train-mongolias-rural-teachers-english-proficiency</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45512.39018223218</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376130/marcos-thumbs-down-halt-jeepney-modernization-implementation</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45512.39018275132</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376117/icc-arrest-warrant-dela-rosa-senate-mulls-scenarios</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45512.39018333582</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376017/yulo-calls-healing-moving-on-family-feud</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45512.39018385114</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376119/trillanes-files-plunder-case-vs-duterte-go-over-p16-b-frigate-deal</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45512.3901844223</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376023/ex-afp-comptroller-carlos-garcia-ordered-pay-p4078-million-fine</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45512.39018493507</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>LTO: No crackdown yet on light e-vehicles</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376042/lto-no-crackdown-yet-light-e-vehicles</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45512.3901854424</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Comelec OKs probe, filing of complaint vs Guo</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376038/comelec-oks-probe-filing-complaint-vs-guo</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45512.39018595011</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>DA to recalibrate Masagana rice program</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376031/da-recalibrate-masagana-rice-program</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45512.39018647272</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>76% of Pinoys support phone ban in schools – poll</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376021/76-pinoys-support-phone-ban-schools-poll</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45512.39018698124</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Health workers: Salary hike of government personnel ‘unjust’</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376012/health-workers-salary-hike-government-personnel-unjust</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45512.39018747978</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376143/house-mega-panel-probe-links-dutertes-drug-war-pogos</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45512.39018802542</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376056/china-steps-presence-critical-areas-west-philippine-sea</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45512.39018876065</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/04/2375283/sws-most-pinoys-see-little-benefit-marcos-foreign-trips</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45512.39018952574</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/07/2376047/octa-poll-finds-fewer-pro-duterte-among-pinoys</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45512.39019009739</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/06/2375851/china-operating-fully-functional-military-base-subi-reef</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45512.39019085042</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Harry Roque, 11 others now on immigration lookout</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/06/2375886/harry-roque-11-others-now-immigration-lookout</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45512.39019166533</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Terranova shipping company denies oil smuggling allegations</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/06/2375871/terranova-shipping-company-denies-oil-smuggling-allegations</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45512.39019234571</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>PCSO urged to consider using e-sabong to recover revenue loss from POGO ban</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/06/2375868/pcso-urged-consider-using-e-sabong-recover-revenue-loss-pogo-ban</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45512.39019296053</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Alice Guo funded POGO hub despite raids, says senator</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/06/2375866/alice-guo-funded-pogo-hub-despite-raids-says-senator</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45512.39019354215</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Headlines</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Rice inflation at 20% in July drives rising costs, hitting poor hardest</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/headlines/2024/08/06/2375859/rice-inflation-20-july-drives-rising-costs-hitting-poor-hardest</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45512.3903609289</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>EDITORIAL - No pause in PUVMP</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/08/2376257/editorial-no-pause-puvmp</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45512.39036148788</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>EDITORIAL - Short arm of the law</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/07/2375968/editorial-short-arm-law</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45512.39036201908</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>EDITORIAL - Marine disaster</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/06/2375848/editorial-marine-disaster</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45512.39036251509</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>EDITORIAL — Aiming for more golds</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/05/2375580/editorial-aiming-more-golds</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45512.39036301698</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>EDITORIAL - Let the truth prevail</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/04/2375328/editorial-let-truth-prevail</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45512.39036409569</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/08/2376251/sports-brings-world-together</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45512.39036468398</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/08/2376254/corruption-and-gen-z-revolution</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45512.39036520896</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/08/2376256/clogged</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45512.39036576269</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/07/2375962/generals-blame-floods-corruption-declare-war-against-perpetrators</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45512.39036631175</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/08/2376247/caloys-goat</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45512.39036681948</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>China watches America’s topsy-turvy election</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/08/2376249/china-watches-americas-topsy-turvy-election</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45512.39036732985</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Child trafficking in the Philippines</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/08/2376245/child-trafficking-philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45512.3903678464</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Yes, we can</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/07/2375966/yes-we-can</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45512.39036840064</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Tourism, Bangkok style</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/07/2375965/tourism-bangkok-style</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45512.39036892278</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Doing tourism wrong and right</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/07/2375964/doing-tourism-wrong-and-right</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45512.39036944932</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/08/2376296/marcos-jr-vows-produce-more-olympic-medalists</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45512.39036998911</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/08/2376251/sports-brings-world-together</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45512.39037052521</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/07/2376127/golden-boy-yulo-receive-p5-million-local-sports-betting-firm</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45512.39037106846</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/07/2376123/obiena-vows-vault-back-pole-position</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45512.39037159867</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/07/2375914/philippines-now-brazils-2nd-biggest-market-pork</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45512.39037211856</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/07/2375960/toxic-positivity</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45512.39037263754</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/07/2375964/doing-tourism-wrong-and-right</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45512.3903731239</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/06/2375842/gold-genes-and-golds</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45512.3903740227</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/06/2375844/save-our-endangered-languages</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45512.39037439106</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>A winning streak for Filipino MSMEs</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/05/2375577/winning-streak-filipino-msmes</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45512.39037476719</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Pronouns and parodies</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/05/2375576/pronouns-and-parodies</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45512.39037517198</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>AI as just ‘another Indian’</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/05/2375575/ai-just-another-indian</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45512.39037571609</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>What we do can greatly impact on others</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/05/2375574/what-we-do-can-greatly-impact-others</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45512.39037632466</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>PBBM’s foreign policy on the right path</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/04/2375327/pbbms-foreign-policy-right-path</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45512.39037690931</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/06/2375846/managed</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45512.39037745603</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/06/2375845/eo-62</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>45512.39037795518</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/06/2375843/informal-formal-angkas-riders-gain-social-security-benefits</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>45512.39037866025</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/04/2375326/exit-plan</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>45512.39038124749</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/07/30/2373973/manilas-floods-olympics-mocks-the-last-supper</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>45512.39038193859</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/04/2375324/boxer-olympic-watching</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>45512.39038550387</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/08/05/2375575/ai-just-another-indian</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>45512.39038630798</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>The future scientists</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/07/27/2373253/future-scientists</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>45512.39038674586</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Confucius/confusion</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/07/27/2373252/confuciusconfusion</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>45512.39038739897</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Nature as fact-checker</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/07/27/2373250/nature-fact-checker</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>45512.39038797715</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Paying attention to our teachers, finally</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/07/27/2373249/paying-attention-our-teachers-finally</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>45512.39038843317</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Opinion</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>EDITORIAL - Waste management</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/opinion/2024/07/26/2373046/editorial-waste-management</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>45512.39055385174</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Farm, fishery output shrink as El Niño hits</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/08/2376169/farm-fishery-output-shrink-el-nio-hits</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>45512.39055432776</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Forex buffer rises slightly to $105.65 billion</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/08/2376167/forex-buffer-rises-slightly-10565-billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>45512.39055485842</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>BIR to fast-track system to detect ghost receipts</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/08/2376166/bir-fast-track-system-detect-ghost-receipts</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>45512.39055534837</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Local ISPs outrun Starlink in internet speed test</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/08/2376165/local-isps-outrun-starlink-internet-speed-test</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>45512.39055580978</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>South Korea puts up $3 billion funding facility for Philippines</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/08/2376164/south-korea-puts-3-billion-funding-facility-philippines</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>45512.39055653849</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2375914/philippines-now-brazils-2nd-biggest-market-pork</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>45512.39055703452</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/08/2376162/threats-reliable-and-affordable-power</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>45512.39055749096</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/08/2376161/smic-net-income-10-h1</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>45512.3905577683</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/08/2376160/record-high-h1-revenues-boost-ali-earnings</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>45512.39055812514</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2375908/trade-deficit-narrows-43-billion-june</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>45512.39055847126</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Q1 GDP growth revised upward to 5.8%</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/08/2376159/q1-gdp-growth-revised-upward-58</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>45512.39055881996</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Phinma to raise P1 billion via SRO</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/08/2376158/phinma-raise-p1-billion-sro</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>45512.3905593957</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Training program on measures on how to avoid COA disallowances</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/08/2376157/training-program-measures-how-avoid-coa-disallowances</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>45512.39055987474</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Customs secures highest COA evaluation</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/08/2376156/customs-secures-highest-coa-evaluation</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>45512.39056024943</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/08/2376296/marcos-jr-vows-produce-more-olympic-medalists</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>45512.39056074095</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2376127/golden-boy-yulo-receive-p5-million-local-sports-betting-firm</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>45512.3905610756</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2376123/obiena-vows-vault-back-pole-position</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45512.39056142214</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2375914/philippines-now-brazils-2nd-biggest-market-pork</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45512.39056180252</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2375905/tourism-third-economic-leg</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45512.39056225911</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2375907/wholesale-prices-pick-june</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>45512.39056262918</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/05/2375644/dunkin-donuts-franchise-ordered-pay-p64m-tax-deficiencies</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>45512.39056289495</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/08/2376156/customs-secures-highest-coa-evaluation</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>45512.39056316714</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/08/2376155/megaworld-earnings-jump-11-p98-billion-h1</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>45512.39056346708</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Stocks dip on prevailing concerns abroad</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2375912/stocks-dip-prevailing-concerns-abroad</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>45512.39056374391</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>BSP ‘less likely’ to cut rates next week – Remolona</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2375911/bsp-less-likely-cut-rates-next-week-remolona</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>45512.3905641016</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Can we still build a steel industry?</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2375904/can-we-still-build-steel-industry</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>45512.39056443232</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DOTr completes P6.6 billion regional airport projects</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2375903/dotr-completes-p66-billion-regional-airport-projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>45512.39056476707</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Extended TRO vs Meralco’s CSP could raise power rates – think tank</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2375902/extended-tro-vs-meralcos-csp-could-raise-power-rates-think-tank</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>45512.3905652055</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/05/2375401/no-china-expansion-table-cebu-pacific</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>45512.39056568648</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/05/2375623/carlos-yulos-condo-reward-upgraded-p35m-after-2nd-gold-medal</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>45512.39056687073</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2375896/ac-health-completes-investment-st-joseph-drug</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>45512.3905673677</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>BSP launches cyber resilience program</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2375897/bsp-launches-cyber-resilience-program</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>45512.39056791816</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ACEN powers RCBC Plaza with green energy</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2375895/acen-powers-rcbc-plaza-green-energy</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>45512.3905685298</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>DMPL US subsidiary gets new financing of up to $240 million</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2375893/dmpl-us-subsidiary-gets-new-financing-240-million</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>45512.39056912503</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>DMCI posts lower earnings in first half</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/07/2375892/dmci-posts-lower-earnings-first-half</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>45512.39056962104</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Business</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Anti-Agricultural Economic Sabotage measure now up for Marcos' signature</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/business/2024/08/06/2375888/anti-agricultural-economic-sabotage-measure-now-marcos-signature</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>45512.39072401602</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>More cops to secure trains, rail stations</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/08/2376231/more-cops-secure-trains-rail-stations</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>45512.39072461103</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Marcos inaugurates P7 billion flood control project in Pampanga</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/08/2376198/marcos-inaugurates-p7-billion-flood-control-project-pampanga</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>45512.39072518226</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>SC junks disbarment case vs 3 Valenzuela prosecutors</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/08/2376224/sc-junks-disbarment-case-vs-3-valenzuela-prosecutors</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>45512.39072581222</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Kidnap raps filed vs 2 Chinese</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/08/2376226/kidnap-raps-filed-vs-2-chinese</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>45512.3907264583</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Fetus dumped in NAIA restroom</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/08/2376211/fetus-dumped-naia-restroom</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>45512.39072730623</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/07/2375940/yulo-obiena-get-cash-rewards-manila</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>45512.39072766309</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/06/2375812/remove-travel-tax-economy-class-passengers</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>45512.39072816248</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/08/2376207/fake-doctor-charged-manila</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>45512.39072869352</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/08/2376197/number-registered-voters-nearing-66-million</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>45512.39072918766</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/08/2376208/3-held-motorcycle-theft</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>45512.39072996278</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Fewer dengue deaths noted as cases rise</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/08/2376196/fewer-dengue-deaths-noted-cases-rise</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>45512.39073032416</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>ASF spreads to 6 Batangas areas</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/08/2376195/asf-spreads-6-batangas-areas</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>45512.39073069852</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/08/2376296/marcos-jr-vows-produce-more-olympic-medalists</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>45512.39073117058</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/07/2376127/golden-boy-yulo-receive-p5-million-local-sports-betting-firm</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>45512.39073191647</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/07/2376123/obiena-vows-vault-back-pole-position</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>45512.39073256843</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/06/2375910/taiwan-threatens-legal-action-over-olympic-boxing-gender-row</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>45512.39073315672</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/06/2375799/pork-supply-stable-despite-batangas-asf-outbreak-department-agriculture</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>45512.39073364717</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/07/2375931/calamba-player-wins-p3022-million-lotto-pot</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>45512.3907341919</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/07/2375943/marcos-new-cesos-uphold-ethical-standards</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>45512.39073487726</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/06/2375807/pra-2-reclamation-projects-manila-bay-okd</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>45512.39073540099</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/07/2376103/fetus-found-naia-terminal-1-restroom</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>45512.39073588874</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Assignment of more health workers in BARMM provinces set</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/07/2376126/assignment-more-health-workers-barmm-provinces-set</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>45512.39073645251</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Farmer dead in another ambush in troubled Maguindanao del Sur town</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/07/2376116/farmer-dead-another-ambush-troubled-maguindanao-del-sur-town</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>45512.39073683378</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>'Habagat' affecting Luzon, Visayas as tropical depression forms outside PAR</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/07/2376091/habagat-affecting-luzon-visayas-tropical-depression-forms-outside-par</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>45512.39073719581</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>3 nabbed for shabu in Taguig, Las Piñas</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/07/2375939/3-nabbed-shabu-taguig-las-pias</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>45512.39073761804</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/07/2376175/nueva-vizcaya-vice-mayor-9-town-officials-question-governors-6-month-suspension</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>45512.39073799163</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/07/2375926/dole-issues-pay-guidelines-august-21-26-holidays</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>45512.39073834781</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Cop steals, sells 8 bikes issued to QCPD</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/07/2375927/cop-steals-sells-8-bikes-issued-qcpd</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>45512.39073873564</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>30 distressed OFWs back from Kuwait</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/07/2375925/30-distressed-ofws-back-kuwait</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>45512.39073911049</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>MMDA: 1,513 tons of trash hauled after typhoon</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/07/2375924/mmda-1513-tons-trash-hauled-after-typhoon</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>45512.39073945992</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Residents of far-flung communities in La Union receive medical, dental aid</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/06/2375922/residents-far-flung-communities-la-union-receive-medical-dental-aid</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>45512.39073983574</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Drunk motorcycle riders die in Kidapawan City road mishap</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/06/2375909/drunk-motorcycle-riders-die-kidapawan-city-road-mishap</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>45512.39074026408</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/07/2375924/mmda-1513-tons-trash-hauled-after-typhoon</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>45512.39074060349</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/08/2376193/1-dead-cavite-fire</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>45512.39074093774</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/05/2375424/carina-monsoon-damage-agriculture-climbs-p304-billion</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>45512.39074127081</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/05/2375450/pnp-cops-deployed-puvmp-unity-walk</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>45512.3907415869</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/05/2375443/4-nabbed-cable-theft-quezon-city</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>45512.39074189901</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Sacks of explosives seized in Zamboanga City</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/06/2375787/sacks-explosives-seized-zamboanga-city</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>45512.39074223755</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Walang Pasok: September 2 declared special non-working holiday in Baguio City</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/05/2375648/walang-pasok-september-2-declared-special-non-working-holiday-baguio-city</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>45512.39074257157</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>P544K worth of shabu seized in Sultan Kudarat police operation</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/05/2375646/p544k-worth-shabu-seized-sultan-kudarat-police-operation</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>45512.39074291419</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>MoTC-BARMM clears highways of unauthorized law enforcers</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/05/2375645/motc-barmm-clears-highways-unauthorized-law-enforcers</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>45512.39074323983</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Nation</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2 dead, 5 hurt in Dipolog City road mishap</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/nation/2024/08/05/2375642/2-dead-5-hurt-dipolog-city-road-mishap</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>45512.39090474929</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Reinforcing external defense capabilities to defend West Philippine Sea</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/07/20/2371649/reinforcing-external-defense-capabilities-defend-west-philippine-sea</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>45512.39090523937</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Delegitimizing China’s maritime expansion in the South China Sea: The role of 2016 arbitral tribunal ruling</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/07/13/2369942/delegitimizing-chinas-maritime-expansion-south-china-sea-role-2016-arbitral-tribunal-ruling</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>45512.39090586163</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>DIME Strategy: What Manila can do after the June 17 South China Sea clash</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/07/10/2369163/dime-strategy-what-manila-can-do-after-june-17-south-china-sea-clash</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>45512.39090641488</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>The persistence of digital vulnerabilities and the need for cyber resilience</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/07/06/2368227/persistence-digital-vulnerabilities-and-need-cyber-resilience</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>45512.39090696856</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>To meet China’s challenges to Philippine sovereignty, don’t forget cybersecurity</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/06/29/2366478/meet-chinas-challenges-philippine-sovereignty-dont-forget-cybersecurity</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>45512.39090746253</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Can cultural context of the Philippines suppress creative thinking?</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/06/29/2366474/can-cultural-context-philippines-suppress-creative-thinking</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>45512.39090789755</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Citizens are at the center of the energy issue</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/06/22/2364769/citizens-are-center-energy-issue</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>45512.3909082841</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Securing economic rights, freedoms in the West Philippine Sea</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/06/15/2363118/securing-economic-rights-freedoms-west-philippine-sea</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>45512.3909087589</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>A premier gateway for Western Visayas</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/06/08/2361337/premier-gateway-western-visayas</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>45512.39090928955</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Intentions to action: Inspiring not just attracting foreign investments</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/06/01/2359620/intentions-action-inspiring-not-just-attracting-foreign-investments</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>45512.39090982665</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>The new life skill of being wise online</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/05/25/2357845/new-life-skill-being-wise-online</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>45512.39091029962</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Critical minerals are key to the green movement</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/05/18/2356097/critical-minerals-are-key-green-movement</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>45512.39091070533</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Adequate nutrition enhances patient outcome</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/05/11/2354297/adequate-nutrition-enhances-patient-outcome</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>45512.39091112266</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Balikatan exercises: A collective pursuit of maritime security</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/05/04/2352582/balikatan-exercises-collective-pursuit-maritime-security</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>45512.39091158409</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Power to the people</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/04/28/2351102/power-people</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>45512.39091206055</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Openness to change is openness to progress</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/04/20/2349154/openness-change-openness-progress</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>45512.39091252198</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Pondering evolving form of trilateral PH-US-Japan partnership: Formal security alliance or loose security network?</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/04/13/2347407/pondering-evolving-form-trilateral-ph-us-japan-partnership-formal-security-alliance-or-loose-security-network</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>45512.39091305551</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Commendable acts of bravery to defend the Philippines’ national security</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/04/06/2345793/commendable-acts-bravery-defend-philippines-national-security</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>45512.39091355478</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>LNG: Transitioning to cleaner power for the growth of our nation</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/03/30/2344041/lng-transitioning-cleaner-power-growth-our-nation</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>45512.39091402773</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>News Commentary</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Remove the roadblocks on right of way acquisition</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/news-commentary/article-list/2024/03/24/2342945/remove-roadblocks-right-way-acquisition</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>45512.39107581065</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Petecio comes up short vs Polish, takes home Olympic boxing bronze</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/08/2376355/petecio-comes-short-vs-polish-takes-home-olympic-boxing-bronze</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>45512.39107625066</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>LIVE updates: Team Philippines at the 2024 Paris Olympics</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/08/2373366/live-updates-team-philippines-2024-paris-olympics</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>45512.39107668354</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Aira’s bronze feels like gold</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/08/2376273/airas-bronze-feels-gold</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>45512.39107714502</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Malixi in match play stage</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/08/2376283/malixi-match-play-stage</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>45512.39107761796</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Gilas women sweep Pinoyliga</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/08/2376280/gilas-women-sweep-pinoyliga</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>45512.39107826985</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/08/2376270/nesthys-rough-road-olympic-gold</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>45512.39107869665</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376127/golden-boy-yulo-receive-p5-million-local-sports-betting-firm</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>45512.39107916511</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376123/obiena-vows-vault-back-pole-position</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>45512.3910796842</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/08/2376350/pagdanganan-rallies-late-secure-joint-13th-olympic-golf-opener</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>45512.39108015157</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/08/2376276/controversial-boxer-moves-closer-gold</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>45512.39108060146</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Batican turns course into playground</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/08/2376282/batican-turns-course-playground</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>45512.39108107441</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Arcilla, Olivarez on collision course</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/08/2376279/arcilla-olivarez-collision-course</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45512.39108151665</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Ando waiting for her time to shine</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/08/2376269/ando-waiting-her-time-shine</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45512.39108206095</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/08/2376296/marcos-jr-vows-produce-more-olympic-medalists</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45512.39108242378</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376127/golden-boy-yulo-receive-p5-million-local-sports-betting-firm</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45512.39108267747</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376123/obiena-vows-vault-back-pole-position</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45512.39108290817</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2375914/philippines-now-brazils-2nd-biggest-market-pork</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45512.3910831629</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/06/2375910/taiwan-threatens-legal-action-over-olympic-boxing-gender-row</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>45512.39108339361</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376063/open-letter-ej</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>45512.39108367843</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376284/ceniza-ends-olympic-weightlifting-bid-after-no-lift</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>45512.39108394462</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376204/paris-olympics-weightlifting-andos-time-now</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>45512.39108418694</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376144/peanuts-paris-magmamani-and-now-olympic-bronze-medalist-aira-villegas-rises-stardom</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>45512.39108445249</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>China arrests woman for defamatory comments about Olympic athletes</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376136/china-arrests-woman-defamatory-comments-about-olympic-athletes</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>45512.39108469543</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Carlos Yulo to get P6-million house, lot in Batangas</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376114/carlos-yulo-get-p6-million-house-lot-batangas</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>45512.39108493435</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Valientes escape Naic Aces to go 2-0 in The Asian Tournament finale</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376122/valientes-escape-naic-aces-go-2-0-asian-tournament-finale</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>45512.39108516514</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Gilas women sweep Pinoyliga Cup</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376120/gilas-women-sweep-pinoyliga-cup</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>45512.39108540736</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Filipino Olympians' Paris success drives Ilogon in ONE bid</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376118/filipino-olympians-paris-success-drives-ilogon-one-bid</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>45512.39108568418</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/06/2375707/petecio-villegas-set-foot-roland-garros</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>45512.39108591231</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/08/2376267/yulo-receive-p5-million-arenaplus</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>45512.39108616059</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/06/2375714/lyles-fastest-man-earth-biles-wants-more</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>45512.39108639132</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/08/2376269/ando-waiting-her-time-shine</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>45512.39108664514</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/06/2375716/bambols-forecast-target</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>45512.39108688847</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Pinay golfers begin Olympic quest</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376084/pinay-golfers-begin-olympic-quest</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>45512.39108712711</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Duplantis invincible; Biles exits with silver</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376083/duplantis-invincible-biles-exits-silver</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>45512.3910873578</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Heartbreak in Paris: Obiena lands 4th</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376081/heartbreak-paris-obiena-lands-4th</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>45512.39108760007</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Heavy load on Philippines lifters’ shoulders</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376078/heavy-load-philippines-lifters-shoulders</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>45512.3910878423</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Still waters ahead for Joanie</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376075/still-waters-ahead-joanie</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>45512.39108807403</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376298/pagdanganan-ardina-slow-start-olympic-golf-opener</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>45512.39108830124</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/06/2375709/mvp-we-never-doubted-second</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>45512.39108854355</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/06/2375719/yulos-name-etched-history</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>45512.39108878572</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/06/2375706/basketball-efficiency-and-scientific-training-center-laguna</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>45512.39108902794</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/07/2376120/gilas-women-sweep-pinoyliga-cup</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="n">
+        <v>45512.39108927131</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Akari shocks Cignal to sweep PVL group</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/06/2375901/akari-shocks-cignal-sweep-pvl-group</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="n">
+        <v>45512.39108952134</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Slots to world tilt at stake in IRONMAN 70.3 Davao race</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/06/2375894/slots-world-tilt-stake-ironman-703-davao-race</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="n">
+        <v>45512.39108976362</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Cousins, Valientes triumph over Macau Black Bears</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/06/2375883/cousins-valientes-triumph-over-macau-black-bears</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="n">
+        <v>45512.39109000599</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Carlos Yulo, Hidilyn Diaz merch: E-commerce platform joins Olympics bandwagon</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/06/2375875/carlos-yulo-hidilyn-diaz-merch-e-commerce-platform-joins-olympics-bandwagon</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="n">
+        <v>45512.39109023654</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Sports</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Cabang Tolentino begs off from Olympic hurdles race due to injury</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/sports/2024/08/06/2375881/cabang-tolentino-begs-olympic-hurdles-race-due-injury</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>45512.39124579092</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Kip Oebanda’s ‘Balota’ a response to the 2022 elections</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/08/2376174/kip-oebandas-balota-response-2022-elections</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
+        <v>45512.39124642097</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>‘Love Child’ cast dedicates the film to producer Mother Lily</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/08/2376173/love-child-cast-dedicates-film-producer-mother-lily</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>45512.39124696836</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>ITZY celebrates ‘2000th day’ since debut with Filipino fans</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/08/2376172/itzy-celebrates-2000th-day-debut-filipino-fans</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
+        <v>45512.39124734134</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Jolina Magdangal trends online after 'Lavender Fields' trailer release</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/07/2376138/jolina-magdangal-trends-online-after-lavender-fields-trailer-release</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="n">
+        <v>45512.3912477033</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>JK Labajo headlines 4th Tanduay Bacolod Rum Festival</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/07/2375879/jk-labajo-headlines-4th-tanduay-bacolod-rum-festival</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="n">
+        <v>45512.39124832632</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/06/2375899/yulo-sets-record-straight-rift-mother-defends-girlfriend</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="n">
+        <v>45512.39124871459</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/07/2375921/netflixs-new-tearjerker-explores-special-bond-between-grandparent-and-grandchild</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="n">
+        <v>45512.39124911874</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/06/2375862/sophia-laforteza-bonds-sister-bini-aiah-ahead-pop-star-academy-katseye-release</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="n">
+        <v>45512.39124942317</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/06/2375852/gma-contractors-seek-dismiss-sexual-harassment-charges-sandro-muhlach</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="n">
+        <v>45512.39124974455</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/07/2375919/angeli-khang-and-robb-guinto-talk-about-their-firsts</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="n">
+        <v>45512.39125005396</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>BTS' Suga 'apologetic' over electric scooter drunk driving incident</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/07/2376132/bts-suga-apologetic-over-electric-scooter-drunk-driving-incident</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="n">
+        <v>45512.39125043902</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Taylor Swift, Post Malone lead 2024 MTV VMAs nominees</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/07/2376124/taylor-swift-post-malone-lead-2024-mtv-vmas-nominees</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="n">
+        <v>45512.39125082477</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>'Hindi ako perpektong ina': Angelica Yulo apologizes to son Carlos</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/07/2376108/hindi-ako-perpektong-ina-angelica-yulo-apologizes-son-carlos</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="n">
+        <v>45512.39125113472</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Park Bo Gum to star as Olympic boxer in upcoming drama 'Good Boy'</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/07/2376104/park-bo-gum-star-olympic-boxer-upcoming-drama-good-boy</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="n">
+        <v>45512.39125143023</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>David Young: New singer with a penchant for old standards and early hits</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/07/2375920/david-young-new-singer-penchant-old-standards-and-early-hits</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="n">
+        <v>45512.39125172657</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/08/2376296/marcos-jr-vows-produce-more-olympic-medalists</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="n">
+        <v>45512.3912520849</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/07/2376127/golden-boy-yulo-receive-p5-million-local-sports-betting-firm</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2" t="n">
+        <v>45512.39125252707</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/07/2376123/obiena-vows-vault-back-pole-position</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="n">
+        <v>45512.39125281375</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/07/2375914/philippines-now-brazils-2nd-biggest-market-pork</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2" t="n">
+        <v>45512.39125338542</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/06/2375855/chito-roo-reveals-feng-shui-series-works</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="n">
+        <v>45512.39125370544</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/04/2375154/moy-ortiz-beyond-company-mass-pop</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2" t="n">
+        <v>45512.39125408488</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/07/2375920/david-young-new-singer-penchant-old-standards-and-early-hits</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>45512.39125437664</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/06/2375657/child-friendly-show-thats-tabing-ilog</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>45512.39125470168</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Mother Lily's memorial service starts in Quezon City</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/06/2375849/mother-lilys-memorial-service-starts-quezon-city</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>45512.39125504973</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Liza Soberano eyeing Brat Summer look; shares tips for ‘aesthetic’ feed goals</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/06/2375850/liza-soberano-eyeing-brat-summer-look-shares-tips-aesthetic-feed-goals</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>45512.39125533457</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>WATCH: Liza Soberano turns into anime characters in new commercial</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/06/2375840/watch-liza-soberano-turns-anime-characters-new-commercial</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>45512.39125562576</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>WATCH: Sandara Park, SB19, G22 share stage at Acer Day 2024</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/06/2375631/watch-sandara-park-sb19-g22-share-stage-acer-day-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>45512.3912559935</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>‘Security concerns’ force cancellation of 'Lost Sabungeros' world premiere at Cinemalaya</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/06/2375662/security-concerns-force-cancellation-lost-sabungeros-world-premiere-cinemalaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>45512.39125722356</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/02/2374952/gma-contractors-named-sandro-muhlach-issue-releases-statement</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>45512.39125783859</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Cinemalaya 2024 entry ‘Tumandok’ aims to help Ati community reclaim ancestral lands</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/05/2375409/cinemalaya-2024-entry-tumandok-aims-help-ati-community-reclaim-ancestral-lands</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>45512.39125821117</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>How Fil-Korean Joshua Kim makes his presence felt in the OPM scene</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/05/2375408/how-fil-korean-joshua-kim-makes-his-presence-felt-opm-scene</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>45512.39125850511</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Andrea and Elisha slowly make their mark in the music industry</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/05/2375407/andrea-and-elisha-slowly-make-their-mark-music-industry</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>45512.39125878378</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>GMA docu 'Lost Sabungeros' Cinemalaya premiere canceled</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/04/2375389/gma-docu-lost-sabungeros-cinemalaya-premiere-canceled</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>45512.39125912683</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Donna Cruz's son graduates magna cum laude in medical biology</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/04/2375384/donna-cruzs-son-graduates-magna-cum-laude-medical-biology</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>45512.39125943534</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/06/2375849/mother-lilys-memorial-service-starts-quezon-city</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>45512.39125973055</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/04/2375180/kim-ji-won-shows-why-shes-queen-screen</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>45512.39126008459</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Entertainment</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Title Not Available</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/entertainment/2024/08/06/2375662/security-concerns-force-cancellation-lost-sabungeros-world-premiere-cinemalaya</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>45512.39143712868</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>How well-funded polytechnic universities can lead the way in innovation and tech</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2023/11/01/2308188/how-well-funded-polytechnic-universities-can-lead-way-innovation-and-tech</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>45512.39143774664</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Libraries seen as crucial in fight vs disinformation</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2023/04/28/2262317/libraries-seen-crucial-fight-vs-disinformation</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>45512.39143835721</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Suspension of student loan payments during disasters pushed in Congress</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2023/03/17/2252335/suspension-student-loan-payments-during-disasters-pushed-congress</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>45512.39143893721</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Miriam College inks study abroad program with Canada college</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2023/02/03/2242366/miriam-college-inks-study-abroad-program-canada-college</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>45512.39143951994</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>New PMA president pushes for Web 3.0 education, to open membership to Filipinos abroad</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2023/02/03/2241778/new-pma-president-pushes-web-30-education-open-membership-filipinos-abroad</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>45512.39144011381</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>UST Varsitarian to celebrate 95th anniversary with grand alumni homecoming on Jan. 14</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2023/01/13/2237386/ust-varsitarian-celebrate-95th-anniversary-grand-alumni-homecoming-jan-14</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>45512.39144073673</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>BCPD scholars shine as they join 2022 pandemic graduates</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2022/08/17/2203277/bcpd-scholars-shine-they-join-2022-pandemic-graduates</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>45512.39144139421</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>8th DLSMUN: Pushing the boundaries of today’s technology</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2022/03/18/2167963/8th-dlsmun-pushing-boundaries-todays-technology</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>45512.39144197833</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>With help from netizens, fisherman's son raises $1,000 to secure slot in US university</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2021/12/30/2150919/help-netizens-fishermans-son-raises-1000-secure-slot-us-university</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>45512.39144256663</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Romblon State University secures P39-M CHED grant</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2021/02/12/2077274/romblon-state-university-secures-p39-m-ched-grant</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>45512.39144317152</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>UP decision to defer grades said to put class requirements over student welfare</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2020/04/16/2007783/decision-defer-grades-said-put-class-requirements-over-student-welfare</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>45512.39144376857</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>UP mulls ending sem early as Ateneo readies for post-COVID-19 school year</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2020/04/14/2007305/mulls-ending-sem-early-ateneo-readies-post-covid-19-school-year</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>45512.39144432956</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Colleges on August-July calendar can extend sem by a month after ECQ lifting — CHED</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2020/04/14/2007265/colleges-august-july-calendar-can-extend-sem-month-after-ecq-lifting-ched</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>45512.39144491387</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>UPCAT 2020 results postponed indefinitely</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2020/03/28/2004009/upcat-2020-results-postponed-indefinitely</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>45512.3914454167</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>'Big 4' universities join COVID-19 handwashing guide trend</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2020/03/11/1999981/big-4-universities-join-covid-19-handwashing-guide-trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>45512.39144595317</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Vera Files co-founder is UP’s 2020 Gawad Tsanselor sa Natatanging Guro awardee</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2020/02/07/1991175/vera-files-co-founder-ups-2020-gawad-tsanselor-sa-natatanging-guro-awardee</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2" t="n">
+        <v>45512.39144647236</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Edukasyon.ph, Asus hold graphic design workshop at PUP featuring Tom Rodriguez</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2019/07/04/1931978/edukasyonph-asus-hold-graphic-design-workshop-pup-featuring-tom-rodriguez</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2" t="n">
+        <v>45512.39144702887</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>‘A self-worth not defined by acads’ — UPLB Class 2019 top grad</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2019/06/22/1928631/a-self-worth-not-defined-acads-uplb-class-2019-top-grad</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2" t="n">
+        <v>45512.39144755443</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>San Beda's energy efficiency efforts drive student awareness</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2019/05/13/1917502/san-bedas-energy-efficiency-efforts-drive-student-awareness</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2" t="n">
+        <v>45512.39144808914</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Campus</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Pinoy students top 14th International Mathematics Contest in Singapore</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>https://www.philstar.com/other-sections/campus/2018/08/03/1839337/pinoy-students-top-14th-international-mathematics-contest-singapore</t>
         </is>
       </c>
     </row>
